--- a/2022/SAMSUNG/JUNE/14.06.2022/SAMSUNG Bank Statement June-2022.xlsx
+++ b/2022/SAMSUNG/JUNE/14.06.2022/SAMSUNG Bank Statement June-2022.xlsx
@@ -3262,6 +3262,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3289,12 +3313,6 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="42" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3305,24 +3323,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6244,67 +6244,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="387" t="s">
+      <c r="A1" s="395" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="387"/>
-      <c r="C1" s="387"/>
-      <c r="D1" s="387"/>
-      <c r="E1" s="387"/>
-      <c r="F1" s="387"/>
-      <c r="G1" s="387"/>
-      <c r="H1" s="387"/>
-      <c r="I1" s="387"/>
-      <c r="J1" s="387"/>
-      <c r="K1" s="387"/>
-      <c r="L1" s="387"/>
-      <c r="M1" s="387"/>
-      <c r="N1" s="387"/>
-      <c r="O1" s="387"/>
-      <c r="P1" s="387"/>
-      <c r="Q1" s="387"/>
+      <c r="B1" s="395"/>
+      <c r="C1" s="395"/>
+      <c r="D1" s="395"/>
+      <c r="E1" s="395"/>
+      <c r="F1" s="395"/>
+      <c r="G1" s="395"/>
+      <c r="H1" s="395"/>
+      <c r="I1" s="395"/>
+      <c r="J1" s="395"/>
+      <c r="K1" s="395"/>
+      <c r="L1" s="395"/>
+      <c r="M1" s="395"/>
+      <c r="N1" s="395"/>
+      <c r="O1" s="395"/>
+      <c r="P1" s="395"/>
+      <c r="Q1" s="395"/>
     </row>
     <row r="2" spans="1:24" s="61" customFormat="1" ht="18">
-      <c r="A2" s="388" t="s">
+      <c r="A2" s="396" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="388"/>
-      <c r="C2" s="388"/>
-      <c r="D2" s="388"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="388"/>
-      <c r="G2" s="388"/>
-      <c r="H2" s="388"/>
-      <c r="I2" s="388"/>
-      <c r="J2" s="388"/>
-      <c r="K2" s="388"/>
-      <c r="L2" s="388"/>
-      <c r="M2" s="388"/>
-      <c r="N2" s="388"/>
-      <c r="O2" s="388"/>
-      <c r="P2" s="388"/>
-      <c r="Q2" s="388"/>
+      <c r="B2" s="396"/>
+      <c r="C2" s="396"/>
+      <c r="D2" s="396"/>
+      <c r="E2" s="396"/>
+      <c r="F2" s="396"/>
+      <c r="G2" s="396"/>
+      <c r="H2" s="396"/>
+      <c r="I2" s="396"/>
+      <c r="J2" s="396"/>
+      <c r="K2" s="396"/>
+      <c r="L2" s="396"/>
+      <c r="M2" s="396"/>
+      <c r="N2" s="396"/>
+      <c r="O2" s="396"/>
+      <c r="P2" s="396"/>
+      <c r="Q2" s="396"/>
     </row>
     <row r="3" spans="1:24" s="62" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="397" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="390"/>
-      <c r="C3" s="390"/>
-      <c r="D3" s="390"/>
-      <c r="E3" s="390"/>
-      <c r="F3" s="390"/>
-      <c r="G3" s="390"/>
-      <c r="H3" s="390"/>
-      <c r="I3" s="390"/>
-      <c r="J3" s="390"/>
-      <c r="K3" s="390"/>
-      <c r="L3" s="390"/>
-      <c r="M3" s="390"/>
-      <c r="N3" s="390"/>
-      <c r="O3" s="390"/>
-      <c r="P3" s="390"/>
-      <c r="Q3" s="391"/>
+      <c r="B3" s="398"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="398"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="398"/>
+      <c r="G3" s="398"/>
+      <c r="H3" s="398"/>
+      <c r="I3" s="398"/>
+      <c r="J3" s="398"/>
+      <c r="K3" s="398"/>
+      <c r="L3" s="398"/>
+      <c r="M3" s="398"/>
+      <c r="N3" s="398"/>
+      <c r="O3" s="398"/>
+      <c r="P3" s="398"/>
+      <c r="Q3" s="399"/>
       <c r="S3" s="46"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6313,52 +6313,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="63" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="392" t="s">
+      <c r="A4" s="400" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="394" t="s">
+      <c r="B4" s="402" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="396" t="s">
+      <c r="C4" s="387" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="396" t="s">
+      <c r="D4" s="387" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="396" t="s">
+      <c r="E4" s="387" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="398" t="s">
+      <c r="F4" s="404" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="396" t="s">
+      <c r="G4" s="387" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="396" t="s">
+      <c r="H4" s="387" t="s">
         <v>202</v>
       </c>
-      <c r="I4" s="396" t="s">
+      <c r="I4" s="387" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="396" t="s">
+      <c r="J4" s="387" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="396" t="s">
+      <c r="K4" s="387" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="396" t="s">
+      <c r="L4" s="387" t="s">
         <v>130</v>
       </c>
-      <c r="M4" s="396" t="s">
+      <c r="M4" s="387" t="s">
         <v>164</v>
       </c>
-      <c r="N4" s="396" t="s">
+      <c r="N4" s="387" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="406" t="s">
+      <c r="O4" s="393" t="s">
         <v>143</v>
       </c>
-      <c r="P4" s="400" t="s">
+      <c r="P4" s="406" t="s">
         <v>173</v>
       </c>
       <c r="Q4" s="120" t="s">
@@ -6371,22 +6371,22 @@
       <c r="W4" s="65"/>
     </row>
     <row r="5" spans="1:24" s="63" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="393"/>
-      <c r="B5" s="395"/>
-      <c r="C5" s="397"/>
-      <c r="D5" s="397"/>
-      <c r="E5" s="397"/>
-      <c r="F5" s="399"/>
-      <c r="G5" s="397"/>
-      <c r="H5" s="397"/>
-      <c r="I5" s="397"/>
-      <c r="J5" s="397"/>
-      <c r="K5" s="397"/>
-      <c r="L5" s="397"/>
-      <c r="M5" s="397"/>
-      <c r="N5" s="397"/>
-      <c r="O5" s="407"/>
-      <c r="P5" s="401"/>
+      <c r="A5" s="401"/>
+      <c r="B5" s="403"/>
+      <c r="C5" s="388"/>
+      <c r="D5" s="388"/>
+      <c r="E5" s="388"/>
+      <c r="F5" s="405"/>
+      <c r="G5" s="388"/>
+      <c r="H5" s="388"/>
+      <c r="I5" s="388"/>
+      <c r="J5" s="388"/>
+      <c r="K5" s="388"/>
+      <c r="L5" s="388"/>
+      <c r="M5" s="388"/>
+      <c r="N5" s="388"/>
+      <c r="O5" s="394"/>
+      <c r="P5" s="407"/>
       <c r="Q5" s="121" t="s">
         <v>36</v>
       </c>
@@ -7024,12 +7024,12 @@
         <v>0</v>
       </c>
       <c r="R24" s="76"/>
-      <c r="S24" s="402" t="s">
+      <c r="S24" s="389" t="s">
         <v>188</v>
       </c>
-      <c r="T24" s="402"/>
-      <c r="U24" s="402"/>
-      <c r="V24" s="402"/>
+      <c r="T24" s="389"/>
+      <c r="U24" s="389"/>
+      <c r="V24" s="389"/>
       <c r="W24" s="87"/>
     </row>
     <row r="25" spans="1:23" s="86" customFormat="1">
@@ -7126,11 +7126,11 @@
         <v>0</v>
       </c>
       <c r="R27" s="76"/>
-      <c r="S27" s="403" t="s">
+      <c r="S27" s="390" t="s">
         <v>80</v>
       </c>
-      <c r="T27" s="404"/>
-      <c r="U27" s="405"/>
+      <c r="T27" s="391"/>
+      <c r="U27" s="392"/>
       <c r="V27" s="354">
         <f>SUM(V25:V26)</f>
         <v>4900</v>
@@ -9423,11 +9423,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9444,6 +9439,11 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -33529,7 +33529,7 @@
   <dimension ref="A1:R217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
